--- a/public/Sales_Report.xlsx
+++ b/public/Sales_Report.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sales Report</t>
   </si>
   <si>
-    <t>From: 2025-01-26 To: 2025-02-26</t>
+    <t>From: 2025-01-19 To: 2025-01-30</t>
   </si>
   <si>
     <t>S.No</t>
@@ -35,30 +35,6 @@
   </si>
   <si>
     <t>Payment Method</t>
-  </si>
-  <si>
-    <t>Anbu Kumar</t>
-  </si>
-  <si>
-    <t>2025-02-22</t>
-  </si>
-  <si>
-    <t>36.58</t>
-  </si>
-  <si>
-    <t>COD</t>
-  </si>
-  <si>
-    <t>2025-02-24</t>
-  </si>
-  <si>
-    <t>3.54</t>
-  </si>
-  <si>
-    <t>Online Payment</t>
-  </si>
-  <si>
-    <t>159.30</t>
   </si>
   <si>
     <t>Total Order Amount:</t>
@@ -111,7 +87,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,9 +96,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -469,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L7"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -530,122 +503,44 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D5"/>
-      <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>1</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5"/>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
-      <c r="L5"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
-        <v>2</v>
-      </c>
       <c r="B6" s="4"/>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6"/>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="4">
-        <v>1</v>
-      </c>
+      <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6"/>
-      <c r="K6" t="s">
-        <v>14</v>
-      </c>
-      <c r="L6"/>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>3</v>
+      <c r="A7" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7"/>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="4">
-        <v>1</v>
-      </c>
+      <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" t="s">
-        <v>15</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L7"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6">
-        <v>199</v>
-      </c>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="7">
-        <v>66</v>
-      </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="12">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:B4"/>
@@ -654,28 +549,10 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A9:H9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="A10:H10"/>
-    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="I7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/Sales_Report.xlsx
+++ b/public/Sales_Report.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Sales Report</t>
   </si>
   <si>
-    <t>From: 2025-01-19 To: 2025-01-30</t>
+    <t>From: 2025-03-03 To: 2025-03-04</t>
   </si>
   <si>
     <t>S.No</t>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t>Payment Method</t>
+  </si>
+  <si>
+    <t>Anbu Kumar</t>
+  </si>
+  <si>
+    <t>2025-03-03</t>
+  </si>
+  <si>
+    <t>94.40</t>
+  </si>
+  <si>
+    <t>COD</t>
   </si>
   <si>
     <t>Total Order Amount:</t>
@@ -87,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -96,6 +108,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -442,7 +457,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -503,44 +518,70 @@
       </c>
       <c r="L4" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
+      <c r="D5"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5"/>
+      <c r="K5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="A7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
     </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="7">
+        <v>320</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="18">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:B4"/>
@@ -549,10 +590,16 @@
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
     <mergeCell ref="A7:H7"/>
     <mergeCell ref="I7:L7"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="I8:L8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/Sales_Report.xlsx
+++ b/public/Sales_Report.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>Sales Report</t>
   </si>
   <si>
-    <t>From: 2025-03-03 To: 2025-03-04</t>
+    <t>From: 2024-03-11 To: 2025-03-11</t>
   </si>
   <si>
     <t>S.No</t>
@@ -47,6 +47,42 @@
   </si>
   <si>
     <t>COD</t>
+  </si>
+  <si>
+    <t>Anbu Raj</t>
+  </si>
+  <si>
+    <t>2025-03-04</t>
+  </si>
+  <si>
+    <t>70.80</t>
+  </si>
+  <si>
+    <t>11.80</t>
+  </si>
+  <si>
+    <t>Riyas Kumar</t>
+  </si>
+  <si>
+    <t>2025-03-05</t>
+  </si>
+  <si>
+    <t>480.20</t>
+  </si>
+  <si>
+    <t>Wallet</t>
+  </si>
+  <si>
+    <t>2025-03-06</t>
+  </si>
+  <si>
+    <t>47.20</t>
+  </si>
+  <si>
+    <t>Saraswathi M</t>
+  </si>
+  <si>
+    <t>2025-03-11</t>
   </si>
   <si>
     <t>Total Order Amount:</t>
@@ -457,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L13"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -544,44 +580,174 @@
       </c>
       <c r="L5"/>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6"/>
+      <c r="E6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6"/>
+      <c r="K6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6"/>
+    </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6">
-        <v>94</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7"/>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7"/>
+      <c r="K7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="7">
-        <v>320</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L8"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9"/>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="6">
+        <v>716</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="7">
+        <v>2018</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="48">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:B4"/>
@@ -596,10 +762,40 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="A8:H8"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="A12:H12"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="I13:L13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/public/Sales_Report.xlsx
+++ b/public/Sales_Report.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>Sales Report</t>
   </si>
   <si>
-    <t>From: 2024-03-11 To: 2025-03-11</t>
+    <t>From: 2025-02-24 To: 2025-03-24</t>
   </si>
   <si>
     <t>S.No</t>
@@ -83,6 +83,39 @@
   </si>
   <si>
     <t>2025-03-11</t>
+  </si>
+  <si>
+    <t>2025-03-13</t>
+  </si>
+  <si>
+    <t>177.00</t>
+  </si>
+  <si>
+    <t>Online Payment</t>
+  </si>
+  <si>
+    <t>2025-03-16</t>
+  </si>
+  <si>
+    <t>224.20</t>
+  </si>
+  <si>
+    <t>Mathan Kumar</t>
+  </si>
+  <si>
+    <t>2025-03-18</t>
+  </si>
+  <si>
+    <t>330.40</t>
+  </si>
+  <si>
+    <t>Tester mmmm</t>
+  </si>
+  <si>
+    <t>2025-03-23</t>
+  </si>
+  <si>
+    <t>460.20</t>
   </si>
   <si>
     <t>Total Order Amount:</t>
@@ -493,7 +526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L17"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -710,44 +743,148 @@
       </c>
       <c r="L10"/>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11"/>
+      <c r="E11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11"/>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11"/>
+    </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6">
-        <v>716</v>
-      </c>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12"/>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="7">
-        <v>2018</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13"/>
+      <c r="E13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>26</v>
+      </c>
+      <c r="L13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14"/>
+      <c r="E14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>26</v>
+      </c>
+      <c r="L14"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="6">
+        <v>1908</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="7">
+        <v>2287</v>
+      </c>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="72">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A4:B4"/>
@@ -792,10 +929,34 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="I10:J10"/>
     <mergeCell ref="K10:L10"/>
-    <mergeCell ref="A12:H12"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="A16:H16"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="I17:L17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
